--- a/data/source_file.xlsx
+++ b/data/source_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mukeshkr\Desktop\DefenseExtraction\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48D4624-D5C9-4AE3-B439-B837D7C6B6EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49602830-3181-4C11-9C3A-D2F13F2E3F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1789C02F-0F05-431D-B1D8-FBD75DE85A9F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>Source URL</t>
   </si>
@@ -47,133 +47,13 @@
     <t>Contract Description</t>
   </si>
   <si>
-    <t>https://www.defense.gov/News/Contracts/Contract/Article/2646965/</t>
+    <t>https://www.war.gov/News/Contracts/Contract/Article/3042310/</t>
   </si>
   <si>
-    <t>Dell Marketing L.P., Round Rock, Texas, is awarded a single-award, firm-fixed-price blanket purchase agreement (BPA) with an overall estimated value of $2,493,000,000, under the Department of Defense Enterprise Software Initiative (DOD ESI) in accordance with Defense Federal Acquisition Regulation System 208.74, DOD Directive 8470.01E, and DOD Executive Agent for Commercial Software Product Management of Core Enterprise Technology Agreements. The DOD ESI streamlines software licensing acquisition and provides information technology products that are compliant with DoD technical standards and represent the best value for the DOD. This DOD Enterprise Software Agreement (ESA) will provide commercially available perpetual licenses, software assurance, user-based subscription licenses to include Microsoft 365, Microsoft Azure, and client access licenses among others. The ESA will be used by DOD and U.S. Coast Guard when authorized under the provisions of 14 U.S. Code (U.S.C.) Section 3 and Section 145; 10 U.S.C. Section 2571; and 31 U.S.C. Section 1535. The ordering period will be for five years from June 1, 2021, through May 31, 2026. This agreement will not obligate funds at the time of award. Funds will be obligated via delivery orders using operations and maintenance (DoD) funds. Future requirements will be procured in accordance with Federal Acquisition Regulation 8.405-3(c)(1). This contract was competitively solicited with two proposals received and one selected for award. Naval Information Warfare Center Pacific, San Diego, California, is the contracting activity (N66001-21-A-0083).</t>
+    <t>Palantir USG Inc., Palo Alto, California, has been awarded a $53,899,333 firm-fixed-price modification (P000010) to previously awarded contract FA8806-21-C-0010 for Project Brown Heron Data-as-a-Service. The contract modification provides for a Data-as-a-Service platform that supports three mission areas to automatically ingest data across the Department of the Air Force that informs personnel decisions, planning and operations and space situational awareness and command and control. Work will be performed in Palo Alto, California, and is expected to be completed by March 31, 2023. Fiscal 2022 operations and maintenance funds in the amount of $16,000,000 will be obligated at the time of award. The total cumulative face value of the contract is $175,399,333. Space Systems Command, Los Angeles Air Force Base, El Segundo, California, is the contracting activity.</t>
   </si>
   <si>
-    <t>https://www.defense.gov/News/Contracts/Contract/Article/2648980/</t>
-  </si>
-  <si>
-    <t>Northrop Grumman Systems Corp., Aerospace Systems, Melbourne, Florida, is awarded a $12,015,026 modification (P00036) to a previously awarded cost-plus-fixed-fee contract (N0001914C0036). This modification increases the ceiling to extend services and adds hours increasing the full-scale fatigue repair time to achieve the required simulated flight hours in support of E-2D Advanced Hawkeye aircraft development. Work will be performed in El Segundo, California (59%); Melbourne, Florida (35%); and Bethpage, New York (6%), and is expected to be completed in June 2023. No funds will be obligated at time of award. The Naval Air Systems Command, Patuxent River, Maryland, is the contracting activity.</t>
-  </si>
-  <si>
-    <t>Airbus U.S. Space &amp; Defense Inc., Arlington, Virginia, was awarded a $119,788,924 modification (P00455) to contract W58RGZ-17-C-0010 for an extension of contractor logistics support services for the UH-72 Lakota. Work will be performed in Grand Prairie, Texas, with an estimated completion date of June 30, 2022. Fiscal 2022 operation and maintenance, Army funds will be obligated in the future. U.S. Army Contracting Command, Redstone Arsenal, Alabama, is the contracting activity.</t>
-  </si>
-  <si>
-    <t>I.E. Pacific Inc.,* Escondido, California (N62473-21-D-1019); Patricia I. Romero Inc., doing business as Pacific West Builders,* National City, California (N62473-21-D-1020); Peter Vander Werff Construction Inc.,* El Cajon, California (N62473-21-D-1021); Heffler Contracting Group,* El Cajon, California (N62473-21-D-1022); Sea Pac Engineering Inc.,* Los Angeles, California (N62473-21-D-1023); Intercontinental Construction Contracting Inc.,* Passaic, New Jersey (N62473-21-D-1024);  SGS LLC,* Yukon, Oklahoma 73099 (N62473-21-D-1025); Shore Herman JV,* Chula Vista, California (N62473-21-D-1026); and CJW Joint Venture,* Santa Ana, California (N62473-21-D-1027), are awarded a $495,000,000 estimated maximum dollar value, indefinite-delivery/indefinite-quantity, multiple award construction contract for construction, repair, and renovation of commercial and institutional facilities at various government installations located in California, Arizona, Nevada, Utah, Colorado, and New Mexico. The work to be performed provides for construction, repair, and renovation of commercial and institutional buildings. Types of projects may include, but are not limited to, airport buildings, office and administrative buildings, communications facilities, vehicle maintenance facilities, armories, parking garages, barracks facilities, prison facilities, fire stations, religious buildings, hotels, dining facilities, hospital and medical facilities, warehouse facilities, school facilities, and commercial facilities. The maximum dollar value including the base period and one option period for all nine contracts combined is $495,000,000. All nine firms will be issued initial task orders of $5,000 as the minimum guarantee. All work on these contracts will be primarily performed the Naval Facilities Engineering Systems Command (NAVFAC) Southwest area of responsibility which includes California (90%); Arizona (6%); Nevada (1%); Utah (1%); Colorado (1%); and New Mexico (1%). The terms of the contracts are not to exceed 60 months, with an expected completion date of June 2026.  Fiscal 2021 operation and maintenance (Navy) contract funds in the amount of $45,000 are obligated on this award and will expire at the end of the current fiscal year.  Future task orders will be primarily funded by military construction (Navy); operation and maintenance (Navy); operation and maintenance (Marine Corps); and Navy working capital funds. This contract was competitively procured as a small business set-aside procurement via the beta.sam.gov website with 16 proposals received. These nine contractors may compete for task orders under the terms and conditions of the awarded contracts. NAVFAC Southwest, San Diego, California, is the contracting activity.</t>
-  </si>
-  <si>
-    <t>Raytheon Missile and Defense, Tucson, Arizona, is awarded a $328,156,454 fixed-price incentive (firm target) contract. This contract provides for the production and delivery of Lot 21 as follows: 483 AIM-9X Block II all up round tactical missiles (212 for the Navy, 187 for the Air Force and 84 for Foreign Military Sales (FMS) customers); 82 AIM-9X block II plus all up round missiles (eight for the Navy, eight for the Air Force and 66 for FMS customers); 156 Block II Captive Air Training Missiles (82 for the Air Force and 74 for FMS customers); eight Block II Special Air Training Missiles (two for the Air Force and six for FMS customers); 198 all up round containers (75 for the Navy, 73 for the Air Force and 50 for FMS customers); six spare advanced optical target detectors (two for the Air Force and four for FMS customers); five spare advanced optical target detector containers (two for the Air Force and three for FMS customers); 29 spare Block II guidance units (live battery) (13 for the Navy, four for the Air Force, and 12 for FMS customers); six spare Block II plus guidance units (live battery) for FMS customers; 41 guidance unit containers for FMS customers; 72 spare Captive Air Training Missile guidance units (inert battery) (22 for the Navy, three for the Air Force, and 47 for FMS customers); two spare Block I propulsion steering sections for the Air Force; seven spare Block II propulsion steering sections (two for the Navy, four for the Air Force, and one for FMS customers); 72 spare Block II electronics units (68 for the Navy and four for the Air Force); two classroom explosive ordnance disposal systems trainers for FMS customers; one practical explosive ordnance disposal systems trainer for a FMS customer; 11 multi-purpose training missiles for various FMS customers; 135 tail caps (eight for the Navy, 16 for the Air Force and 111 for FMS customers); 35 tail cap containers (two for the Navy, four for the Air Force, and 29 for FMS customers); one lot of spares assets for the Navy; one lot of spares assets for the Air Force; and one lot of spares assets for the governments of Australia, Bahrain, Belgium, Bulgaria, Canada, Denmark, Finland, Indonesia, Israel, Japan, Kuwait, Malaysia, Morocco, the Netherlands, Norway, Oman, Poland, Qatar, Romania, Saudi Arabia, Singapore, Slovakia, Republic of  Korea, Taiwan, Turkey, and the United Arab Emirates.  Work will be performed in Tucson, Arizona (31%); North Logan, Utah (10%); Keyser, West Virginia (9%); Niles, Illinois (8%); Vancouver, Washington (5%); Ottawa, Ontario, Canada (5%); Goleta, California (4%); Cheshire, Connecticut (4%); Heilbronn, Germany (3%); Simsbury, Connecticut (2%); San Jose, California (2%); Valencia, California (2%); Anaheim, California (2%); Cajon, California (2%); Cincinnati, Ohio (1%); Anniston, Alabama (1%); San Diego, California (1%); Chatsworth, California (1%); Amesbury, Massachusetts (1%); Claremont, California (1%); Sumner, Washington (1%); and various locations within the continental U.S. (4%), and is expected to be completed in June 2024.  Fiscal 2021 weapons procurement (Navy) funds in the amount of $98,204,232; fiscal 2021 missile procurement (Air Force) funds in the amount of $102,681,830; fiscal 2021 research, development, test and evaluation (Air Force) funds in the amount of $802,382; fiscal 2020 missile procurement (Air Force) funds in the amount of $257,638; fiscal 2020 weapons procurement (Navy) funds in the amount of $108,826; fiscal 2019 missile procurement (Air Force) in the amount of $295,576; and FMS funds in the amount of $125,805,970 will be obligated at the time of award, $295,576 of which will expire at the end of the current fiscal year. This contract was not competitively procured pursuant to Federal Acquisition Regulation 6.302-1. The Naval Air Systems Command, Patuxent River, Maryland, is the contracting activity (N0001921C0723).</t>
-  </si>
-  <si>
-    <t>Vigor Marine LLC, Portland, Oregon, is awarded a $9,840,871 firm-fixed-price contract for a 65-calendar day shipyard availability. The work to be performed provides for services for the mid-term availability of the fleet oiler USNS Guadalupe (T-AO 200). The contract also contains five unexercised options, which if exercised, would increase cumulative contract value to $11,661,014. Work will be performed in Portland, Oregon, and is expected to be completed by Sept. 12, 2021. Fiscal 2021 working capital contract funds (Navy) in the amount of $9,840,871 are obligated for this award and will not expire at the end of the current fiscal year. This contract was competitively procured via the beta.SAM.gov website, with one proposal received. The Navy’s Military Sealift Command, Norfolk, Virginia, is the contracting activity (N3220521C4126).</t>
-  </si>
-  <si>
-    <t>Merck, Sharp &amp; Dohme Corp., Kenilworth, New Jersey, was awarded a $1,207,999,848 firm-fixed-price contract for 1,696,629 treatment courses of the oral antiviral MK-4482. Bids were solicited via the internet with one received. Work will be performed in Kenilworth, New Jersey, with an estimated completion date of June 15, 2022. Fiscal 2020 Coronavirus Aid, Relief and Economic Security (CARES) Act funds in the amount of $1,207,999,848 were obligated at the time of the award. U.S. Army Contracting Command, Aberdeen Proving Ground, Maryland, is the contracting activity (W911QY-21-C-0031). (Awarded June 7, 2021)</t>
-  </si>
-  <si>
-    <t>Harris Global Communications Inc., Rochester, New York, was awarded a $3,300,000,000 firm-fixed-price contract for radios, communication equipment, ancillary and spare parts, and related services. Bids were solicited via the internet with one received. Work locations and funding will be determined with each order, with an estimated completion date of June 9, 2026. U.S. Army Contracting Command, Aberdeen Proving Ground, Maryland, is the contracting activity (W91CRB-21-D-5003). </t>
-  </si>
-  <si>
-    <t>Northrop Grumman Systems Corp., Charlottesville, Virginia, is awarded a $37,849,913 firm-fixed-priced, long-term requirements contract for mini-stock point and the repair of items supporting the inertial navigation system AN/WSN-7, the AN/BPS-15/16 radar set and the DDG integrated bridge systems. This contract includes a 60-month ordering period with no options. All work will be performed in Charlottesville, Virginia, and is expected to be completed by June 2026. No funds will be obligated at time of award. Working capital funds (Navy) will be obligated as individual task orders are issued, and funds will not expire at the end of the current fiscal year. One source was solicited for this non-competitive requirement under authority 10 U.S. Code 2304 (c)(1), with one offer received. Naval Supply Systems Command Weapon Systems Support, Mechanicsburg, Pennsylvania, is the contracting activity (N00104-21-D-PC01).</t>
-  </si>
-  <si>
-    <t>Cisco Systems Inc., San Jose, California, was awarded a single-award indefinite-delivery/indefinite-quantity contract with a ceiling of $1,180,185,116 for brand name Cisco Smart Net Total Care and Software Support Services for users across the Department of Defense.  The period of performance is a one-year base period and two one-year option periods, for a total contract life cycle of three years. Proposals were solicited from the System for Award Management website (beta.SAM.gov), and three proposals were received.  The Defense Information Technology Contracting Organization, Scott Air Force Base, Illinois, is the contracting activity (HC1084-21-D-0003).</t>
-  </si>
-  <si>
-    <t>Applied Research Associates, Albuquerque, New Mexico (N66001-21-D-0132); Gryphon Technologies LLC, Washington, D.C. (N66001-21-D-0133); HII Mission Driven Innovative Solutions Inc., Huntsville, Alabama (N66001-21-D-0134); ISPA Technology LLC, Lithia, Florida (N66001-21-D-0135); Leidos Inc., Reston, Virginia (N66001-21-D-0136; Oasis Systems LLC, Burlington, Massachussetts (N66001-21-D-0137); Peraton Inc., Herndon, Virginia (N66001-21-D-0138); Science Applications International Corp., Reston, Virginia (N66001-21-D-0139); and Serco, Inc., of San Diego, California (N66001-21-D-0140) are awarded a $118,816,148 indefinite-delivery/indefinite-quantity, multiple-award contract with cost-plus-fixed-fee and cost-with-no-fee pricing for technical support including specification and design, fabrication, installation, test and evaluation, fielding, maintenance, training, and configuration and program management of hardware and software in support of surface and subsurface unmanned maritime systems engaged in waterborne and underwater mine countermeasures. This four-year contract includes four one-year option periods which, if exercised, would bring the overall potential value of this contract to an estimated $249,741,160. Work will be performed in San Diego, California (75%); and outside the continental U.S. (25%). The period of performance of the base award is from June 15, 2021, through June 14, 2025. If all options are exercised, the period of performance would extend through June 14, 2029. Awardees will have the opportunity to compete for task orders during the ordering period. No funds will be obligated at the time of award. Fiscal 2021 funds will be obligated as task orders are issued using operation and maintenance (Navy); other procurement (Navy); working capital (DOD); and research, development, test and evaluation (Navy) funds. This contract was competitively procured via a request for proposal (N66001-21-R-0014) published on the beta.sam.gov web site and Naval Information Warfare Systems Command e-Commerce Central website. Thirteen offers were received and nine were selected for award. Naval Information Warfare Center Pacific, San Diego, California, is the contracting activity.</t>
-  </si>
-  <si>
-    <t>Parsons Government Services, Huntsville, Alabama, is being awarded a competitive cost-plus-fixed-fee level-of-effort contract.  The total value of this contract is $2,241,762,696.  Under this new contract, the contractor will provide support that includes: engineering and technical support; studies, analysis, and evaluations; and management and professional services.  The work will be performed in Huntsville, Alabama; Fort Belvoir, Virginia; Colorado Springs, Colorado; Fort Greely, Alaska; Moorestown, New Jersey; Hanscom Air Force Base, Massachusetts; Phoenix, Arizona; Orlando, Florida; and Salt Lake City, Utah. The performance period is from July 2021 to January 2029. This contract was competitively procured via publication on the beta.SAM.gov website with two proposals received.  Fiscal 2021 research, development, test and evaluation funds in the amount of $36,407,574 are being obligated on this award.  The Missile Defense Agency, Huntsville, Alabama, is the contracting activity (HQ0858-21-C-0015).</t>
-  </si>
-  <si>
-    <t>The Boeing Co., Mesa, Arizona, was awarded a $169,460,000 firm-fixed-price contract to support the Apache full-rate production Lot 12 long lead effort.  Bids were solicited via the internet with one received.  Work will be performed in Mesa, Arizona, with an estimated completion date of May 31, 2027.  Fiscal 2021 aircraft procurement (Army) funds in the amount of $169,460,000 were obligated at the time of the award.  U.S. Army Contracting Command, Redstone Arsenal, Alabama, is the contracting activity (W58RGZ-21-C-0015). (Awarded June 18, 2021)</t>
-  </si>
-  <si>
-    <t>The Boeing Co., Ridley Park, Pennsylvania, received a delivery order in the amount of $580,598,636 on a previously negotiated option under a basic ordering agreement W91215-16-G-0001 for 14 H-47 extended range rotary wing aircraft that satisfy the United Kingdom’s requirement for heavy assault, rotary wing aircraft.  This modification exercises an option that was awarded on an existing delivery order.  Foreign Military Sales funding from the United Kingdom in the amount of $580,598,636 is being obligated at the time of award.  The majority of the work will be performed in Ridley Park, Pennsylvania, and is expected to be completed by July 2026.  This is a non-competitive award and is in accordance with Federal Acquisition Regulation 6.302-1.  U.S. Special Operations Command, Tampa, Florida, is the contracting activity.</t>
-  </si>
-  <si>
-    <t>BL Harbert International, Birmingham, Alabama (W912HN-21-D-3000); Archer Western Federal JV, Chicago, Illinois (W912HN-21-D-3001); Hensel Phelps Construction Co., Orlando, Florida (W912HN-21-D-3002); JE Dunn Construction Co., Kansas City, Missouri (W912HN-21-D-3003); and Turner Construction, New York, New York (W912HN-21-D-3004), will compete for each order of the $950,000,000 firm-fixed-price contract for new construction relating to site work, fire protection, mechanical systems, plumbing, utility systems, structural, electrical, heating, ventilation and air conditioning, instrumentation, security and safety areas of government facilities.  Bids were solicited via the internet with 28 received.  Work locations and funding will be determined with each order, with an estimated completion date of June 22, 2026.  U.S. Army Corps of Engineers, Savannah, Georgia, is the contracting activity.</t>
-  </si>
-  <si>
-    <t>HP Enterprise Services, Herndon, Virginia, has been awarded a $443,779,321 firm-fixed-price, cost-plus-incentive-fee, cost-plus-fixed-fee, cost-reimbursement contract for the U.S. Strategic Command Information Technology Capabilities.  This contract will provide services, capabilities and functions to include information technology infrastructure, mission critical systems and applications.  Work will be performed at Offutt Air Force Base, Nebraska, and is expected to be completed June 30, 2026.  No funds are being obligated at the time of award.  The 55th Contracting Squadron, Offutt AFB, Nebraska, is the contracting activity. (FA4600-21-D-0001).</t>
-  </si>
-  <si>
-    <t>Lockheed Martin Corp., Fort Worth, Texas, is awarded a not-to-exceed $19,066,327 undefinitized modification (P00005) to a previously awarded, cost-plus-fixed-fee contract (N0001920C0032). This modification adds scope to procure 16 Operational Data Integrated Network Base kits, to include software installation and integration support for the F-35 Lightning II Joint Strike Fighter program in support of the Navy, Air Force and non-U.S. Department of Defense (DOD) participants. Work will be performed in Fort Worth, Texas, and is expected to be completed in January 2024. Fiscal 2021 aircraft procurement (Navy) funds in the amount of $4,051,967; fiscal 2021 aircraft procurement (Air Force) funds in the amount of $2,929,986; and non-DoD participants funds in the amount of $2,551,229 will be obligated at time of award, none of which will expire at the end of the current fiscal year. The Naval Air Systems Command, Patuxent River, Maryland, is the contracting activity.</t>
-  </si>
-  <si>
-    <t>Webcor Construction LP doing business as Webcor Builders, Alameda, California, is awarded a $113,295,656 firm-fixed-price task order (N62473-21-F-4923) under a multiple award construction contract for design and construction of a range control complex at Naval Air Weapons Station, China Lake.  The task order also contains 15 unexercised options, which if exercised, would increase cumulative task order value to $115,355,217.  The work to be performed includes design and construction of a range control complex consisting of four buildings, a range control center, range engineering and operations building, range instrumentation support facility and one building that will contain both the range fire control and missile assembly buildings.  Work will be performed in Ridgecrest, California, and is expected to be completed by January 2024.  Fiscal 2021 military construction (Navy) contract funds in the amount of $113,295,656 are obligated on this award and will not expire at the end of the current fiscal year.  Nine proposals were received for this task order.  Naval Facilities Engineering Systems Command, Southwest, San Diego, California, is the contracting activity (N62473-21-D-1214).</t>
-  </si>
-  <si>
-    <t>Sikorsky Aircraft Corp., a Lockheed Martin Co., Stratford, Connecticut, is awarded a $735,903,127 modification (P00004) to previously awarded firm-fixed-price contract N00019-20-C-0047.  This modification increases the scope for nine Lot Five low rate initial production CH-53K heavy-lift aircraft and associated aircraft, programmatic and logistical support.  Work will be performed in Stratford, Connecticut (36.71%); Wichita, Kansas (9.86%); Salt Lake City, Utah (6.19%); St. Louis, Missouri (4.30%); Bridgeport, West Virginia (3.19%); Redmond, Washington (1.91%); Quebec, Canada (1.66%); Kent, Washington (1.63%); Rochester, United Kingdom (1.59%); Cudahy, Wisconsin (1.39%); Fort Walton Beach, Florida (1.19%); Jupiter, Florida (1.01%); various locations within the continental U.S. (CONUS) (27.37%); and various locations outside CONUS (2%), and is expected to be completed in December 2024.  Fiscal 2021 aircraft procurement (Navy) funds in the amount of $735,903,127 will be obligated at time of award, none of which will expire at the end of the current fiscal year.  The Naval Air Systems Command, Patuxent River, Maryland, is the contracting activity.</t>
-  </si>
-  <si>
-    <t>Comcast Government Services LLC, Reston, Virginia, was awarded a competitive firm-fixed-price, single award, indefinite-delivery/indefinite-quantity contract with a ceiling value of $71,606,000 for the Commercial Ethernet Gateway Region 5 to provide mission partner access, via Ethernet connections to the Department of Defense Information Network and to enable the replacement of legacy, time division multiplexing-based circuits.  The contract, with a $500 minimum guarantee, will be funded by fiscal 2021 operation and maintenance funds.  Primary performance will be at the contractor’s above-identified facility in Reston, Virginia, and government sites, as designated within the individual task orders, throughout the states of California and Nevada. Proposals were solicited via beta.sam.gov and four proposals were received.  The period of performance is 10 years, with a six-year base period and two 2-year option periods beginning June 30, 2021, through June 29, 2031.  The Defense Information Technology Contracting Organization, Scott Air Force Base, Illinois, is the contracting activity (HC1013-21-D-0005).</t>
-  </si>
-  <si>
-    <t>ASRC Earthworks LLC, Anchorage, Alaska, has been awarded a $133,000,000 indefinite-delivery/indefinite-quantity contract for road and airfield paving requirements on Joint Base Elmendorf-Richardson, Anchorage, Alaska.  The period of performance for this contract is expected to be July 1, 2021, to June 30, 2026, with an optional two-year extension resulting in a total end date of June 30, 2028.  This award is the result of a competitive Alaska District 8(a) business development program set-aside.  A total of six proposals were received in response to this solicitation.  Fiscal 2021 operation and management funds in the amount of $491,853 are being obligated at the time of award.  The 673rd Contracting Squadron, Elmendorf Air Force Base, Alaska, is the contracting activity (FA5000-21-R-0008).</t>
-  </si>
-  <si>
-    <t>Collins Aerospace, Richardson, Texas, is awarded an $18,159,063 cost-plus-fixed-fee order (N00019-21-F-0213) against previously issued basic ordering agreement N00019-19-G-0031.  This order procures one high power transmit set (HPTS) modernization validation kit and one HPTS modernization verification kit and installation of each in the E-6B Mercury aircraft.  Work will be performed in Richardson, Texas (70%); and Tinker, Oklahoma (30%), and is expected to be completed in August 2023.  Fiscal 2021 aircraft procurement (Navy) funds in the amount of $18,159,063 will be obligated at time of award, none of which will expire at the end of the current fiscal year.  The Naval Air Systems Command, Patuxent River, Maryland, is the contracting activity.</t>
-  </si>
-  <si>
-    <t>Lockheed Martin Corp., Lockheed Martin Aeronautics Co., Fort Worth, Texas, is awarded a not-to-exceed $1,803,683,878 cost-plus-fixed-fee, cost-plus-incentive-fee, and fixed-price-incentive-firm undefinitized contract action. This contract provides for the procurement of recurring logistics services for delivered F-35 Lightning II Joint Strike Fighter air systems in support of the Air Force, Marine Corps, Navy, non-U.S. Department of Defense (DOD) participants and Foreign Military Sales (FMS) customers. Services to be provided include ground maintenance activities, action request resolution, depot activation activities, automatic logistics information system operations and maintenance, reliability, maintainability and health management implementation and support, supply chain management and activities to provide and support pilot and maintainer initial training. Work will be performed in Fort Worth, Texas (61%); Orlando, Florida (24%); Greenville, South Carolina (8%); Samlesbury, United Kingdom (4%); and El Segundo, California (3%), and is expected to be completed in December 2021.  Fiscal 2021 operation and maintenance (Air Force) funds in the amount of $91,083,695; fiscal 2021 operation and maintenance (Air National Guard) funds in the amount of $40,478,232; fiscal 2021 operation and maintenance (Marine Corps) funds in the amount of $56,922,784; fiscal 2021 operation and maintenance (Navy) funds in the amount of $27,192,677; non-U.S. DOD participant funds in the amount of $76,946,111; and FMS funds in the amount of $41,266,703 will be obligated at the time of the award, $215,677,388 of which will expire at the end of the current fiscal year. This contract was not competitively procured pursuant to Defense Federal Acquisition Regulation 6.302-1. The Naval Air Systems Command, Patuxent River, Maryland, is the contracting activity (N0001921C0020).</t>
-  </si>
-  <si>
-    <t>The Boeing Co., St. Louis, Missouri, has been awarded a $128,843,992 firm-fixed-price contract for the F-15 Mission Training Center (MTC) simulation services to support the Air Combat Command, Pacific Air Forces and Air Force in Europe locations.  The contractor will provide all personnel, equipment, supplies, transportation, tools, materials, supervision and other items to perform all MTC services.  These services will provide simulation capability to train F-15 pilots and system operators in high-fidelity training devices.  Work will be performed in St. Louis, Missouri; Kadena Air Base, Japan; Mountain Home Air Force Base, Idaho; Nellis AFB, Nevada; Royal Air Force Lakenheath, United Kingdom; and Seymour-Johnson AFB, North Carolina, and is expected to be completed Dec. 31, 2021.  Fiscal 2021 operation and maintenance funds in the amount of $13,177,889 are being obligated at the time of award.  Air Force Life Cycle Management Center, Wright-Patterson AFB, Ohio, is the contracting activity (FA8621-21-C-0001).</t>
-  </si>
-  <si>
-    <t>https://www.defense.gov/News/Contracts/Contract/Article/2644648/</t>
-  </si>
-  <si>
-    <t>https://www.defense.gov/News/Contracts/Contract/Article/2650662/</t>
-  </si>
-  <si>
-    <t>https://www.defense.gov/News/Contracts/Contract/Article/2678227/</t>
-  </si>
-  <si>
-    <t>https://www.defense.gov/News/Contracts/Contract/Article/2652182/</t>
-  </si>
-  <si>
-    <t>https://www.defense.gov/News/Contracts/Contract/Article/2654069/</t>
-  </si>
-  <si>
-    <t>https://www.defense.gov/News/Contracts/Contract/Article/2655739/</t>
-  </si>
-  <si>
-    <t>https://www.defense.gov/News/Contracts/Contract/Article/2657500/</t>
-  </si>
-  <si>
-    <t>https://www.defense.gov/News/Contracts/Contract/Article/2659241/</t>
-  </si>
-  <si>
-    <t>https://www.defense.gov/News/Contracts/Contract/Article/2661059/</t>
-  </si>
-  <si>
-    <t>https://www.defense.gov/News/Contracts/Contract/Article/2665060/</t>
-  </si>
-  <si>
-    <t>https://www.defense.gov/News/Contracts/Contract/Article/2667164/</t>
-  </si>
-  <si>
-    <t>https://www.defense.gov/News/Contracts/Contract/Article/2669117/</t>
-  </si>
-  <si>
-    <t>https://www.defense.gov/News/Contracts/Contract/Article/2670768/</t>
-  </si>
-  <si>
-    <t>https://www.defense.gov/News/Contracts/Contract/Article/2702957/</t>
-  </si>
-  <si>
-    <t>https://www.defense.gov/News/Contracts/Contract/Article/2672658/</t>
-  </si>
-  <si>
-    <t>https://www.defense.gov/News/Contracts/Contract/Article/2676201/</t>
-  </si>
-  <si>
-    <t>https://www.defense.gov/News/Contracts/Contract/Article/2674228/</t>
+    <t>Sierra Nevada Corp., Sparks, Nevada, has been awarded a $33,997,595 firm-fixed-price and cost-reimbursement-no-fee order modification (P00003) to contract FA8509-20-F-0014, under Basic Contract FA8509-19-D-0001, for the MC-130J Airborne Mission Networking program low rate initial production. This order provides for the procurement of production kits, spares, interim contactor support and weapon system trainer support. Work will be performed in Centennial, Colorado, and is expected to be completed by Jan. 19, 2023. Fiscal 2022 U.S. Southern Command other procurement funds in the amount of $8,283,414; and fiscal 2022 Air Force other procurement funds in the amount of $25,714,181 are being obligated at the time of award. Air Force Life Cycle Management Center, Robins Air Force Base, Georgia, is the contracting activity. (Awarded May 13, 2022)</t>
   </si>
 </sst>
 </file>
@@ -198,37 +78,33 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Open Sans Light"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Open Sans Light"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -240,32 +116,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="7">
+    <cellStyle name="Hyperlink 2" xfId="5" xr:uid="{00F41B89-8AB3-4DEC-B344-7FC2A8535877}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{59B0006E-8B6C-423D-8CA5-489B9B84501F}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{03F02164-DE7E-42D8-A994-D35F28C418EB}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{0B6B507B-5FA2-423C-B8C4-C7D970ABFD51}"/>
+    <cellStyle name="Normal 4" xfId="6" xr:uid="{51838AE8-7A8E-4FB3-9548-2463E317BB0A}"/>
+    <cellStyle name="Normal 5" xfId="1" xr:uid="{9D1EBD81-4714-47FE-A766-B284A5A0D282}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -597,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C32A2EF0-6AE5-4C15-9CF0-4CEB2FFB30C8}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B25"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -622,267 +500,25 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>29</v>
+      <c r="A2" t="s">
+        <v>3</v>
       </c>
       <c r="B2" s="1">
-        <v>44350</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>44705</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
-        <v>44351</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+      <c r="B3" s="2">
+        <v>44705</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" s="1">
-        <v>44354</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="1">
-        <v>44355</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="1">
-        <v>44377</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="1">
-        <v>44355</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="1">
-        <v>44356</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="1">
-        <v>44357</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="1">
-        <v>44358</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="1">
-        <v>44361</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="1">
-        <v>44362</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="1">
-        <v>44363</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="1">
-        <v>44368</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="1">
-        <v>44369</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="1">
-        <v>44370</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="1">
-        <v>44371</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="1">
-        <v>44398</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="1">
-        <v>44371</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="1">
-        <v>44372</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="1">
-        <v>44372</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="1">
-        <v>44376</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="1">
-        <v>44376</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="1">
-        <v>44377</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="1">
-        <v>44375</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/data/source_file.xlsx
+++ b/data/source_file.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mukeshkr\Desktop\DefenseExtraction\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49602830-3181-4C11-9C3A-D2F13F2E3F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F704E67-A7E0-4C36-A12A-C12FB09F42E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1789C02F-0F05-431D-B1D8-FBD75DE85A9F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Source URL</t>
   </si>
@@ -47,13 +47,10 @@
     <t>Contract Description</t>
   </si>
   <si>
-    <t>https://www.war.gov/News/Contracts/Contract/Article/3042310/</t>
+    <t>Northrop Grumman Systems Corp., Aerospace Systems, Melbourne, Florida, is awarded a $12,015,026 modification (P00036) to a previously awarded cost-plus-fixed-fee contract (N0001914C0036). This modification increases the ceiling to extend services and adds hours increasing the full-scale fatigue repair time to achieve the required simulated flight hours in support of E-2D Advanced Hawkeye aircraft development. Work will be performed in El Segundo, California (59%); Melbourne, Florida (35%); and Bethpage, New York (6%), and is expected to be completed in June 2023. No funds will be obligated at time of award. The Naval Air Systems Command, Patuxent River, Maryland, is the contracting activity.</t>
   </si>
   <si>
-    <t>Palantir USG Inc., Palo Alto, California, has been awarded a $53,899,333 firm-fixed-price modification (P000010) to previously awarded contract FA8806-21-C-0010 for Project Brown Heron Data-as-a-Service. The contract modification provides for a Data-as-a-Service platform that supports three mission areas to automatically ingest data across the Department of the Air Force that informs personnel decisions, planning and operations and space situational awareness and command and control. Work will be performed in Palo Alto, California, and is expected to be completed by March 31, 2023. Fiscal 2022 operations and maintenance funds in the amount of $16,000,000 will be obligated at the time of award. The total cumulative face value of the contract is $175,399,333. Space Systems Command, Los Angeles Air Force Base, El Segundo, California, is the contracting activity.</t>
-  </si>
-  <si>
-    <t>Sierra Nevada Corp., Sparks, Nevada, has been awarded a $33,997,595 firm-fixed-price and cost-reimbursement-no-fee order modification (P00003) to contract FA8509-20-F-0014, under Basic Contract FA8509-19-D-0001, for the MC-130J Airborne Mission Networking program low rate initial production. This order provides for the procurement of production kits, spares, interim contactor support and weapon system trainer support. Work will be performed in Centennial, Colorado, and is expected to be completed by Jan. 19, 2023. Fiscal 2022 U.S. Southern Command other procurement funds in the amount of $8,283,414; and fiscal 2022 Air Force other procurement funds in the amount of $25,714,181 are being obligated at the time of award. Air Force Life Cycle Management Center, Robins Air Force Base, Georgia, is the contracting activity. (Awarded May 13, 2022)</t>
+    <t>https://www.defense.gov/News/Contracts/Contract/Article/2644648/</t>
   </si>
 </sst>
 </file>
@@ -63,7 +60,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -97,6 +94,21 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -116,7 +128,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -124,19 +136,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="5" xr:uid="{00F41B89-8AB3-4DEC-B344-7FC2A8535877}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{59B0006E-8B6C-423D-8CA5-489B9B84501F}"/>
@@ -475,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C32A2EF0-6AE5-4C15-9CF0-4CEB2FFB30C8}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -499,26 +513,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>3</v>
+    <row r="2" spans="1:3" ht="90" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="B2" s="1">
-        <v>44705</v>
+        <v>44350</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" s="2">
-        <v>44705</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
